--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1833974.008084063</v>
+        <v>-1838687.919038426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14096457.70429735</v>
+        <v>14094097.78673567</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>64.20236289581176</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>115.094537686714</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.9893010461506</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>26.96566453630858</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.2742684609744</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8334805676000223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>361.3355924931767</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>169.8093911677536</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914574</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>105.9266751536593</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>142.5811035955014</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>51.67182267228189</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>214.7651156389421</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>135.5413370468854</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>139.4001769312354</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>6.897481179122963</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>42.73843312562571</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>35.90209702295554</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>12.80988915479293</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>56.52786162633225</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>70.03904814941255</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>37.52017935371051</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3740,25 +3740,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>930.4757375204661</v>
+        <v>659.8431226740851</v>
       </c>
       <c r="C2" t="n">
-        <v>930.4757375204661</v>
+        <v>266.6676211770156</v>
       </c>
       <c r="D2" t="n">
-        <v>930.4757375204661</v>
+        <v>266.6676211770156</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>266.6676211770156</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>253.8135867473975</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>244.6912352758047</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>547.1277883310449</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354875</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>2058.52586096329</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>2058.52586096329</v>
+        <v>1391.40253703751</v>
       </c>
       <c r="V2" t="n">
-        <v>1716.419051666808</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W2" t="n">
-        <v>1716.419051666808</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="X2" t="n">
-        <v>1326.966446599865</v>
+        <v>659.8431226740851</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.4757375204661</v>
+        <v>659.8431226740851</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021433</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622355</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837159</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946036</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777354</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777354</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>1155.938290490836</v>
       </c>
       <c r="O3" t="n">
-        <v>2120.099597904235</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1754.652729266198</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="C4" t="n">
-        <v>1584.447611332187</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D4" t="n">
-        <v>1428.814498234702</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>1428.814498234702</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>1428.814498234702</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>1428.814498234702</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179937</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549411</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591119</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367697</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737748</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737748</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737748</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737748</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737748</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>2174.782969737748</v>
+        <v>480.4667619226461</v>
       </c>
       <c r="W4" t="n">
-        <v>2174.782969737748</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="X4" t="n">
-        <v>1940.702647520731</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="Y4" t="n">
-        <v>1939.860747957499</v>
+        <v>197.1363598538237</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>606.3926870869566</v>
+        <v>428.4650796203542</v>
       </c>
       <c r="C5" t="n">
-        <v>606.3926870869566</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="D5" t="n">
-        <v>606.3926870869566</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>114.5970879866883</v>
       </c>
       <c r="L5" t="n">
-        <v>188.1454323035831</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354875</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523737</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958336</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661855</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="W5" t="n">
-        <v>777.917324630142</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="X5" t="n">
-        <v>606.3926870869566</v>
+        <v>1225.45053441115</v>
       </c>
       <c r="Y5" t="n">
-        <v>606.3926870869566</v>
+        <v>828.9598253317511</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569814</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>901.493590467074</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>384.7662638580611</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>229.2074517172636</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>43.49565939475497</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>569.9742825493623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1886.395173071196</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.395173071196</v>
+        <v>917.1506521271314</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,16 +4802,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.395173071196</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W8" t="n">
-        <v>1886.395173071196</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X8" t="n">
-        <v>1886.395173071196</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1886.395173071196</v>
+        <v>917.1506521271314</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>403.5294713069377</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>233.3243533729269</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>731.8255324017405</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>446.3867406436415</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>180.4073954644657</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>180.4073954644657</v>
+        <v>811.8495511815956</v>
       </c>
       <c r="X10" t="n">
-        <v>180.4073954644657</v>
+        <v>811.8495511815956</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.4073954644657</v>
+        <v>588.737489998239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.72012241885</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1286.72012241885</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D11" t="n">
-        <v>1286.72012241885</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>955.9328726815879</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>610.8347093577595</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G11" t="n">
-        <v>269.4682289919565</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5072,19 +5072,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>3004.271952586836</v>
       </c>
       <c r="X11" t="n">
-        <v>1940.113026917257</v>
+        <v>2686.615622666086</v>
       </c>
       <c r="Y11" t="n">
-        <v>1615.418592984053</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>569.5655503012285</v>
+        <v>474.8748941930971</v>
       </c>
       <c r="C13" t="n">
-        <v>471.1567075134116</v>
+        <v>376.4660514052803</v>
       </c>
       <c r="D13" t="n">
-        <v>387.3198695621202</v>
+        <v>292.6292134539889</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>292.6292134539889</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138157</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.437984451693</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1056.795467839788</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V13" t="n">
-        <v>1056.795467839788</v>
+        <v>1113.420597768819</v>
       </c>
       <c r="W13" t="n">
-        <v>845.261340917159</v>
+        <v>901.8864708461902</v>
       </c>
       <c r="X13" t="n">
-        <v>682.977293846336</v>
+        <v>739.6024237753671</v>
       </c>
       <c r="Y13" t="n">
-        <v>682.977293846336</v>
+        <v>588.2866377382044</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1413.689529456423</v>
+        <v>1653.0370227692</v>
       </c>
       <c r="C14" t="n">
-        <v>1092.310303105547</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D14" t="n">
-        <v>1092.310303105547</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>761.5230533682857</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>416.4248900444572</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>75.05840967865424</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3048.857535078168</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3048.857535078168</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2864.90108065896</v>
       </c>
       <c r="V14" t="n">
-        <v>2683.941523761099</v>
+        <v>2594.590546508673</v>
       </c>
       <c r="W14" t="n">
-        <v>2384.73876387558</v>
+        <v>2295.387786623154</v>
       </c>
       <c r="X14" t="n">
-        <v>2067.082433954831</v>
+        <v>1977.731456702405</v>
       </c>
       <c r="Y14" t="n">
-        <v>1742.388000021626</v>
+        <v>1653.0370227692</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497495</v>
+        <v>510.0345227307296</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619326</v>
+        <v>411.6256799429127</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106412</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160376</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1373.881414311043</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1209.958637625471</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.958637625471</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.958637625471</v>
+        <v>872.8795642628195</v>
       </c>
       <c r="W16" t="n">
-        <v>998.4245107028427</v>
+        <v>661.345437340191</v>
       </c>
       <c r="X16" t="n">
-        <v>836.1404636320196</v>
+        <v>623.4462662758369</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.8246775948569</v>
+        <v>623.4462662758369</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5604,10 +5604,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5689,7 +5689,7 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218605</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390266</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6230,19 +6230,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985344</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286442</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988156</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026472</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,43 +6467,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848362</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6598,16 +6598,16 @@
         <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746018</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729558</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041651</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7342,7 +7342,7 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>969.3241577214669</v>
@@ -7351,7 +7351,7 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,7 +7394,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099314</v>
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7585,34 +7585,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072222</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>277.7768138244369</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>285.6453651336262</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>292.4021013970198</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
-        <v>142.319093944076</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381766</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>640.3852542562165</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>169.9272434827135</v>
       </c>
       <c r="N6" t="n">
-        <v>203.3343718525558</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223238</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,25 +9006,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9252,13 +9252,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,25 +10665,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>459.8553156798577</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>110.3637306032069</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>289.3132511075405</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>119.5451157930904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>156.3391423096965</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>236.9540183796494</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>37.24224548729574</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.67056243513163</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>123.1410272464043</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1233671.181675867</v>
+        <v>1232468.086448346</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1233671.181675867</v>
+        <v>1232468.086448346</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72132.87123734268</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="C2" t="n">
+        <v>72132.8712373427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72132.87123734274</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63743.60936976026</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63743.60936976024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72132.8712373427</v>
+      </c>
+      <c r="H2" t="n">
+        <v>72132.87123734271</v>
+      </c>
+      <c r="I2" t="n">
         <v>72132.87123734273</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72132.87123734273</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63743.60936976024</v>
-      </c>
-      <c r="F2" t="n">
-        <v>63743.60936976022</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72132.87123734268</v>
-      </c>
-      <c r="H2" t="n">
-        <v>72132.87123734267</v>
-      </c>
-      <c r="I2" t="n">
-        <v>72132.8712373427</v>
       </c>
       <c r="J2" t="n">
         <v>72132.87123734257</v>
       </c>
       <c r="K2" t="n">
-        <v>72132.87123734254</v>
+        <v>72132.87123734257</v>
       </c>
       <c r="L2" t="n">
-        <v>72132.87123734264</v>
+        <v>72132.87123734276</v>
       </c>
       <c r="M2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="N2" t="n">
         <v>72132.87123734271</v>
       </c>
       <c r="O2" t="n">
-        <v>72132.87123734271</v>
+        <v>72132.87123734267</v>
       </c>
       <c r="P2" t="n">
-        <v>72132.87123734271</v>
+        <v>72132.87123734274</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923647</v>
       </c>
       <c r="F4" t="n">
         <v>125701.6674923646</v>
@@ -26436,7 +26436,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="P4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387441.2876785499</v>
+        <v>-383089.8418642551</v>
       </c>
       <c r="C6" t="n">
-        <v>-205236.339386694</v>
+        <v>-209231.1848302</v>
       </c>
       <c r="D6" t="n">
-        <v>-212404.6604083655</v>
+        <v>-220140.949631757</v>
       </c>
       <c r="E6" t="n">
-        <v>-227266.6392964894</v>
+        <v>-227476.3708431791</v>
       </c>
       <c r="F6" t="n">
-        <v>-115144.0778224449</v>
+        <v>-115353.8093691344</v>
       </c>
       <c r="G6" t="n">
         <v>-206922.8075988057</v>
       </c>
       <c r="H6" t="n">
-        <v>-159497.4820621238</v>
+        <v>-159497.4820621237</v>
       </c>
       <c r="I6" t="n">
         <v>-159497.4820621237</v>
       </c>
       <c r="J6" t="n">
-        <v>-372539.3996594094</v>
+        <v>-366023.1145048362</v>
       </c>
       <c r="K6" t="n">
-        <v>-165737.2504649069</v>
+        <v>-165737.2504649068</v>
       </c>
       <c r="L6" t="n">
-        <v>-220919.839399528</v>
+        <v>-224968.67661</v>
       </c>
       <c r="M6" t="n">
-        <v>-201698.3115217467</v>
+        <v>-202750.0065329349</v>
       </c>
       <c r="N6" t="n">
         <v>-159497.4820621237</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,10 +26805,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>256.6398570333625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>106.1710587294635</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925448</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>148.248309146772</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27591,19 +27591,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>88.0452832664096</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.047460003923</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>27.90815398892198</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>215.7486878485201</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,10 +27780,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>114.9542654178638</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>239.0056138999975</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>340.853979316323</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>18.59674567450614</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>144.9557610012487</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528481</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29223,16 +29223,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5.63600263452858</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,25 +29539,25 @@
         <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
+        <v>86.65052755599572</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>93.99127447431644</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431644</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566529</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893292</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254068</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>76.793854550313</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30171,16 +30171,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634528936</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>128.0517622267097</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>136.0815277095298</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>200.0149793477079</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
-        <v>55.23572912476139</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>73.83216285893928</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>490.6602026584893</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>77.54012143340162</v>
       </c>
       <c r="N6" t="n">
-        <v>117.9622589983891</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,13 +35972,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724866</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,10 +36285,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094874</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36519,16 +36519,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716074</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36598,25 +36598,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.977449472253</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>43.49509683159965</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653326</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>197.8808906882712</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>374.483202825691</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724871</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
